--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>werwer</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>rwr</t>
+  </si>
+  <si>
+    <t>hello world abasda</t>
   </si>
 </sst>
 </file>
@@ -359,15 +362,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D23"/>
+  <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -378,17 +381,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -396,7 +399,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>0</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="5">
   <si>
     <t>werwer</t>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t>wer</t>
-  </si>
-  <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>rwr</t>
   </si>
   <si>
     <t>hello world abasda</t>
@@ -362,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F23"/>
+  <dimension ref="A2:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,46 +375,225 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
       <c r="B23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>0</v>
       </c>
     </row>
